--- a/states/Finlandia.xlsx
+++ b/states/Finlandia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,20 +661,14 @@
           <t>17:37 16-04-2022</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="B2" t="n">
+        <v>153</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33</v>
       </c>
       <c r="E2" t="n">
         <v>9330000</v>
@@ -788,6 +782,144 @@
         </is>
       </c>
       <c r="AR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nord (Norvegia)_nan_81171.0_40.46; Russia europea e Ural (Russia)_1560000.0_1374309.0_8158.64; Svezia_2700000.0_880752.0_644.98;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17:47 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>9330000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23800</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4370000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3648030</v>
+      </c>
+      <c r="I3" t="n">
+        <v>728.28</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2010000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>640038</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2449.02</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>667095</v>
+      </c>
+      <c r="R3" t="n">
+        <v>9098.74</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3180000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>698817</v>
+      </c>
+      <c r="U3" t="n">
+        <v>128.52</v>
+      </c>
+      <c r="V3" t="n">
+        <v>215000</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>3170000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1109337</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>442.68</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1940000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>161409</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1311.38</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>10263</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>784000</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>58779</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>687.8200000000001</v>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>landia è esportata _9000.0_-3732.0_9.52;landia è esportata _1000000.0_-861159.0_2196.74;</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Nord (Norvegia)_nan_81171.0_40.46; Russia europea e Ural (Russia)_1560000.0_1374309.0_8158.64; Svezia_2700000.0_880752.0_644.98;</t>
         </is>
